--- a/results_all.xlsx
+++ b/results_all.xlsx
@@ -1,43 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="All" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,313 +351,313 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pred_s</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FPR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FNR</t>
-        </is>
+      <c r="A1" t="str">
+        <v>Model</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Pred_s</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Precision</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Recall</v>
+      </c>
+      <c r="E1" t="str">
+        <v>F1</v>
+      </c>
+      <c r="F1" t="str">
+        <v>FPR</v>
+      </c>
+      <c r="G1" t="str">
+        <v>FNR</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RandomForest-SQL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8905150000937283</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9917172832689122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.792236435818262</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8808239333006376</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003844182470527935</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.207763564181738</v>
+      <c r="A2" t="str">
+        <v>RandomForest-SQL</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0.9832301</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0.991717283</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0.792236436</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0.880823933</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0.003844182</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0.207763564</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MLP-SQL</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0206725001335144</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9911894273127754</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7940008822232024</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.881704628949302</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004100461301896463</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2059991177767975</v>
+      <c r="A3" t="str">
+        <v>MLP-SQL</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0.0205513</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0.991189427</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0.794000882</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0.881704629</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0.004100461</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0.205999118</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XGBoost-SQL</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.02780609996989369</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="str">
+        <v>XGBoost-SQL</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0.0444581</v>
+      </c>
+      <c r="C4" t="str">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.4239082487869431</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5954151177199505</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4" t="str">
+        <v>0.423908249</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0.595415118</v>
+      </c>
+      <c r="F4" t="str">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5760917512130569</v>
+      <c r="G4" t="str">
+        <v>0.576091751</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CatBoost-SQL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.127218599896878</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="str">
+        <v>CatBoost-SQL</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0.1535582</v>
+      </c>
+      <c r="C5" t="str">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.7878253198059109</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8813224771773994</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" t="str">
+        <v>0.78782532</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0.881322477</v>
+      </c>
+      <c r="F5" t="str">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.2121746801940891</v>
+      <c r="G5" t="str">
+        <v>0.21217468</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TabPFN-SQL</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1528.796062999871</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="str">
+        <v>TabPFN-SQL</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1401.346529</v>
+      </c>
+      <c r="C6" t="str">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.7838553153947949</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8788328387734916</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6" t="str">
+        <v>0.783855315</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0.878832839</v>
+      </c>
+      <c r="F6" t="str">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.2161446846052051</v>
+      <c r="G6" t="str">
+        <v>0.216144685</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RandomForest-XSS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.08669919986277819</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="str">
+        <v>RandomForest-XSS</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0.087071</v>
+      </c>
+      <c r="C7" t="str">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.9450847457627118</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9717671662600209</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7" t="str">
+        <v>0.945084746</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.971767166</v>
+      </c>
+      <c r="F7" t="str">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.05491525423728814</v>
+      <c r="G7" t="str">
+        <v>0.054915254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MLP-XSS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.009859399870038033</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.999288256227758</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.951864406779661</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="A8" t="str">
+        <v>MLP-XSS</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0.014176</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.999288256</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.951864407</v>
+      </c>
+      <c r="E8" t="str">
         <v>0.975</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.000791765637371338</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.04813559322033898</v>
+      <c r="F8" t="str">
+        <v>0.000791766</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0.048135593</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>XGBoost-XSS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.02078050002455711</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6463628396143734</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="A9" t="str">
+        <v>XGBoost-XSS</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0.0191939</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0.64636284</v>
+      </c>
+      <c r="D9" t="str">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.7852009582113388</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6389548693586699</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9" t="str">
+        <v>0.785200958</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.638954869</v>
+      </c>
+      <c r="G9" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CatBoost-XSS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.07833700021728873</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="str">
+        <v>CatBoost-XSS</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0.0827263</v>
+      </c>
+      <c r="C10" t="str">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.9464406779661017</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9724834552420759</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10" t="str">
+        <v>0.946440678</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0.972483455</v>
+      </c>
+      <c r="F10" t="str">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.05355932203389831</v>
+      <c r="G10" t="str">
+        <v>0.053559322</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TabPFN-XSS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>670.2129179001786</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" t="str">
+        <v>TabPFN-XSS</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1743.008903</v>
+      </c>
+      <c r="C11" t="str">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.9423728813559322</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9703315881326352</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11" t="str">
+        <v>0.942372881</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0.970331588</v>
+      </c>
+      <c r="F11" t="str">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.0576271186440678</v>
+      <c r="G11" t="str">
+        <v>0.057627119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/results_all.xlsx
+++ b/results_all.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,313 +414,313 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Model</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Pred_s</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Precision</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Recall</v>
-      </c>
-      <c r="E1" t="str">
-        <v>F1</v>
-      </c>
-      <c r="F1" t="str">
-        <v>FPR</v>
-      </c>
-      <c r="G1" t="str">
-        <v>FNR</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pred_s</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FPR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>RandomForest-SQL</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0.9832301</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0.991717283</v>
-      </c>
-      <c r="D2" t="str">
-        <v>0.792236436</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0.880823933</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0.003844182</v>
-      </c>
-      <c r="G2" t="str">
-        <v>0.207763564</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest-SQL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8627100996673107</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9917172832689122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.792236435818262</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8808239333006376</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003844182470527935</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.207763564181738</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>MLP-SQL</v>
-      </c>
-      <c r="B3" t="str">
-        <v>0.0205513</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0.991189427</v>
-      </c>
-      <c r="D3" t="str">
-        <v>0.794000882</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0.881704629</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0.004100461</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0.205999118</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MLP-SQL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02129790000617504</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9911894273127754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7940008822232024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.881704628949302</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004100461301896463</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2059991177767975</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>XGBoost-SQL</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0.0444581</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>XGBoost-SQL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04113319981843233</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <v>0.423908249</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0.595415118</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="D4" t="n">
+        <v>0.4239082487869431</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5954151177199505</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="str">
-        <v>0.576091751</v>
+      <c r="G4" t="n">
+        <v>0.5760917512130569</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>CatBoost-SQL</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0.1535582</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CatBoost-SQL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.134633899666369</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="str">
-        <v>0.78782532</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0.881322477</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="D5" t="n">
+        <v>0.7878253198059109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8813224771773994</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="str">
-        <v>0.21217468</v>
+      <c r="G5" t="n">
+        <v>0.2121746801940891</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>TabPFN-SQL</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1401.346529</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TabPFN-SQL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5056.038699799683</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <v>0.783855315</v>
-      </c>
-      <c r="E6" t="str">
-        <v>0.878832839</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="D6" t="n">
+        <v>0.7838553153947949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8788328387734916</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="str">
-        <v>0.216144685</v>
+      <c r="G6" t="n">
+        <v>0.2161446846052051</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>RandomForest-XSS</v>
-      </c>
-      <c r="B7" t="str">
-        <v>0.087071</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RandomForest-XSS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09035099996253848</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="str">
-        <v>0.945084746</v>
-      </c>
-      <c r="E7" t="str">
-        <v>0.971767166</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="D7" t="n">
+        <v>0.9450847457627118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9717671662600209</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="str">
-        <v>0.054915254</v>
+      <c r="G7" t="n">
+        <v>0.05491525423728814</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>MLP-XSS</v>
-      </c>
-      <c r="B8" t="str">
-        <v>0.014176</v>
-      </c>
-      <c r="C8" t="str">
-        <v>0.999288256</v>
-      </c>
-      <c r="D8" t="str">
-        <v>0.951864407</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MLP-XSS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01008199993520975</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.999288256227758</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.951864406779661</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.975</v>
       </c>
-      <c r="F8" t="str">
-        <v>0.000791766</v>
-      </c>
-      <c r="G8" t="str">
-        <v>0.048135593</v>
+      <c r="F8" t="n">
+        <v>0.000791765637371338</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04813559322033898</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>XGBoost-XSS</v>
-      </c>
-      <c r="B9" t="str">
-        <v>0.0191939</v>
-      </c>
-      <c r="C9" t="str">
-        <v>0.64636284</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>XGBoost-XSS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02378330007195473</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6463628396143734</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="str">
-        <v>0.785200958</v>
-      </c>
-      <c r="F9" t="str">
-        <v>0.638954869</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="E9" t="n">
+        <v>0.7852009582113388</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6389548693586699</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>CatBoost-XSS</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0.0827263</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CatBoost-XSS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07700970023870468</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="str">
-        <v>0.946440678</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0.972483455</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="D10" t="n">
+        <v>0.9464406779661017</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9724834552420759</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="str">
-        <v>0.053559322</v>
+      <c r="G10" t="n">
+        <v>0.05355932203389831</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>TabPFN-XSS</v>
-      </c>
-      <c r="B11" t="str">
-        <v>1743.008903</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TabPFN-XSS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>909.7467050999403</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="str">
-        <v>0.942372881</v>
-      </c>
-      <c r="E11" t="str">
-        <v>0.970331588</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="D11" t="n">
+        <v>0.9423728813559322</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9703315881326352</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="str">
-        <v>0.057627119</v>
+      <c r="G11" t="n">
+        <v>0.0576271186440678</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results_all.xlsx
+++ b/results_all.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8627100996673107</v>
+        <v>0.2316101999999773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9917172832689122</v>
+        <v>0.9991083370485956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.792236435818262</v>
+        <v>0.9885310983678871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8808239333006376</v>
+        <v>0.9937915742793791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003844182470527935</v>
+        <v>0.0005125576627370579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.207763564181738</v>
+        <v>0.01146890163211292</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02129790000617504</v>
+        <v>0.08108430000083899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9911894273127754</v>
+        <v>0.999553770638108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7940008822232024</v>
+        <v>0.9880899867666519</v>
       </c>
       <c r="E3" t="n">
-        <v>0.881704628949302</v>
+        <v>0.9937888198757764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004100461301896463</v>
+        <v>0.000256278831368529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2059991177767975</v>
+        <v>0.01191001323334804</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04113319981843233</v>
+        <v>0.03364010000041162</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9232643118148599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4239082487869431</v>
+        <v>0.6687251874724305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5954151177199505</v>
+        <v>0.7756459452545408</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.03229113275243465</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5760917512130569</v>
+        <v>0.3312748125275695</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.134633899666369</v>
+        <v>0.1550741000000926</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9991075412762159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7878253198059109</v>
+        <v>0.9876488751654169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8813224771773994</v>
+        <v>0.9933451641526175</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.0005125576627370579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2121746801940891</v>
+        <v>0.01235112483458315</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5056.038699799683</v>
+        <v>1330.2276802</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9986619090098127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7838553153947949</v>
+        <v>0.9876488751654169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8788328387734916</v>
+        <v>0.9931248613883344</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0007688364941055869</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2161446846052051</v>
+        <v>0.01235112483458315</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09035099996253848</v>
+        <v>0.08732430000054592</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9450847457627118</v>
+        <v>0.9966101694915255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9717671662600209</v>
+        <v>0.99830220713073</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05491525423728814</v>
+        <v>0.003389830508474576</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01008199993520975</v>
+        <v>0.05508709999958228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999288256227758</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.951864406779661</v>
+        <v>0.9993220338983051</v>
       </c>
       <c r="E8" t="n">
-        <v>0.975</v>
+        <v>0.9996609020006781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000791765637371338</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04813559322033898</v>
+        <v>0.0006779661016949153</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02378330007195473</v>
+        <v>0.09239419999994425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6463628396143734</v>
+        <v>0.9950354609929078</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9511864406779661</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7852009582113388</v>
+        <v>0.9726169844020798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6389548693586699</v>
+        <v>0.005542359461599367</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0488135593220339</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07700970023870468</v>
+        <v>0.1478067000007286</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9464406779661017</v>
+        <v>0.9952542372881356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9724834552420759</v>
+        <v>0.9976214746856948</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05355932203389831</v>
+        <v>0.004745762711864407</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>909.7467050999403</v>
+        <v>584.7832345000006</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9979605710401088</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9423728813559322</v>
+        <v>0.9952542372881356</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9703315881326352</v>
+        <v>0.9966055668703326</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0576271186440678</v>
+        <v>0.004745762711864407</v>
       </c>
     </row>
   </sheetData>

--- a/results_all.xlsx
+++ b/results_all.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2316101999999773</v>
+        <v>0.1556733000034001</v>
       </c>
       <c r="C2" t="n">
         <v>0.9991083370485956</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08108430000083899</v>
+        <v>0.084568100006436</v>
       </c>
       <c r="C3" t="n">
         <v>0.999553770638108</v>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03364010000041162</v>
+        <v>0.02567090000229655</v>
       </c>
       <c r="C4" t="n">
         <v>0.9232643118148599</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1550741000000926</v>
+        <v>0.1291535999989719</v>
       </c>
       <c r="C5" t="n">
         <v>0.9991075412762159</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1330.2276802</v>
+        <v>1492.690092900004</v>
       </c>
       <c r="C6" t="n">
         <v>0.9986619090098127</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08732430000054592</v>
+        <v>0.09895479999249801</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05508709999958228</v>
+        <v>0.06125149999570567</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09239419999994425</v>
+        <v>0.02339950000168756</v>
       </c>
       <c r="C9" t="n">
         <v>0.9950354609929078</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1478067000007286</v>
+        <v>0.1358147999999346</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>584.7832345000006</v>
+        <v>655.1339726000006</v>
       </c>
       <c r="C11" t="n">
         <v>0.9979605710401088</v>

--- a/results_all.xlsx
+++ b/results_all.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Pred_s</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>RandomForest-SQL</t>
+  </si>
+  <si>
+    <t>MLP-SQL</t>
+  </si>
+  <si>
+    <t>XGBoost-SQL</t>
+  </si>
+  <si>
+    <t>CatBoost-SQL</t>
+  </si>
+  <si>
+    <t>TabPFN-SQL</t>
+  </si>
+  <si>
+    <t>RandomForest-XSS</t>
+  </si>
+  <si>
+    <t>MLP-XSS</t>
+  </si>
+  <si>
+    <t>XGBoost-XSS</t>
+  </si>
+  <si>
+    <t>CatBoost-XSS</t>
+  </si>
+  <si>
+    <t>TabPFN-XSS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,307 +421,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pred_s</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FPR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FNR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RandomForest-SQL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1556733000034001</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.191673900000751</v>
+      </c>
+      <c r="C2">
         <v>0.9991083370485956</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.9885310983678871</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.9937915742793791</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.0005125576627370579</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.01146890163211292</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MLP-SQL</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.084568100006436</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.08696669999335427</v>
+      </c>
+      <c r="C3">
         <v>0.999553770638108</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.9880899867666519</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.9937888198757764</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.000256278831368529</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.01191001323334804</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XGBoost-SQL</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.02567090000229655</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.02316759999666829</v>
+      </c>
+      <c r="C4">
         <v>0.9232643118148599</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.6687251874724305</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.7756459452545408</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.03229113275243465</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.3312748125275695</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CatBoost-SQL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1291535999989719</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1806255999981659</v>
+      </c>
+      <c r="C5">
         <v>0.9991075412762159</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.9876488751654169</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.9933451641526175</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.0005125576627370579</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.01235112483458315</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TabPFN-SQL</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1492.690092900004</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1308.625039399994</v>
+      </c>
+      <c r="C6">
         <v>0.9986619090098127</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.9876488751654169</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.9931248613883344</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.0007688364941055869</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.01235112483458315</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RandomForest-XSS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.09895479999249801</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.09839299999293871</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.9966101694915255</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.99830220713073</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.003389830508474576</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MLP-XSS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.06125149999570567</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.05676920000405516</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.9993220338983051</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.9996609020006781</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.0006779661016949153</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>XGBoost-XSS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.02339950000168756</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.03017719999479596</v>
+      </c>
+      <c r="C9">
         <v>0.9950354609929078</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.9511864406779661</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.9726169844020798</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.005542359461599367</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.0488135593220339</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CatBoost-XSS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1358147999999346</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1387140000006184</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.9952542372881356</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.9976214746856948</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.004745762711864407</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TabPFN-XSS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>655.1339726000006</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>586.4186313999962</v>
+      </c>
+      <c r="C11">
         <v>0.9979605710401088</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.9952542372881356</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.9966055668703326</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.002375296912114014</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.004745762711864407</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>